--- a/data/input_mail/result/total_data_from_mail.xlsx
+++ b/data/input_mail/result/total_data_from_mail.xlsx
@@ -1,36 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\CIG\data\input_mail\result\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="total_one_car" sheetId="1" r:id="rId1"/>
-    <sheet name="total_mul_car" sheetId="2" r:id="rId2"/>
+    <sheet name="ELMONGY" sheetId="1" r:id="rId1"/>
+    <sheet name="YOUSEF" sheetId="2" r:id="rId2"/>
+    <sheet name="SAM" sheetId="3" r:id="rId3"/>
+    <sheet name="MIZIOUT" sheetId="4" r:id="rId4"/>
+    <sheet name="EGY_KOREA" sheetId="5" r:id="rId5"/>
+    <sheet name="AL_AMAL" sheetId="6" r:id="rId6"/>
+    <sheet name="YOUSEF_MUL" sheetId="7" r:id="rId7"/>
+    <sheet name="ELFEKY_MUL" sheetId="8" r:id="rId8"/>
+    <sheet name="AHMED_MUL" sheetId="9" r:id="rId9"/>
+    <sheet name="SAM_MUL" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="208">
+  <si>
+    <t>CONSIGNEE NAME</t>
+  </si>
+  <si>
+    <t>MODEL</t>
+  </si>
   <si>
     <t>YR</t>
   </si>
   <si>
-    <t>CONSIGNEE NAME</t>
-  </si>
-  <si>
-    <t>MODEL</t>
-  </si>
-  <si>
     <t>CHASSINO</t>
   </si>
   <si>
@@ -43,114 +46,618 @@
     <t>FREIGHT FORWARDER ID</t>
   </si>
   <si>
-    <t>gen_time</t>
+    <t>SALEH AHMED MOHAMED SALEH</t>
+  </si>
+  <si>
+    <t>NABIELAH MAGDY AATTIA MOHAMED AATTIA HELAL</t>
+  </si>
+  <si>
+    <t>BASSIOUNY MOHAMED HAFEZ MOHAMED ELSHAFAAY</t>
+  </si>
+  <si>
+    <t>K3</t>
+  </si>
+  <si>
+    <t>AVANTE</t>
+  </si>
+  <si>
+    <t>FORTE</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>KNAFK412BDA050028</t>
+  </si>
+  <si>
+    <t>KMHDU41BBAU098545</t>
+  </si>
+  <si>
+    <t>KNAFH22139A014476</t>
+  </si>
+  <si>
+    <t>9992022070000061164</t>
+  </si>
+  <si>
+    <t>9992022070000038337</t>
+  </si>
+  <si>
+    <t>9992022070000061172</t>
+  </si>
+  <si>
+    <t>999999999</t>
+  </si>
+  <si>
+    <t>950449415</t>
+  </si>
+  <si>
+    <t>940426900</t>
+  </si>
+  <si>
+    <t>REDA MAHMOUD SADEK MOUSTAFA</t>
+  </si>
+  <si>
+    <t>AASEM MOHAMED ABD ELFATAH ABD ELRAHMAN</t>
+  </si>
+  <si>
+    <t>AAWAAD ABD ELAATY MOHAMED EBRAHIM</t>
+  </si>
+  <si>
+    <t>MOHAMED SHAABAN KHALF HUSSIEN</t>
+  </si>
+  <si>
+    <t>MOHAMED BAHAG ELDIEN AHMED HUSSIEN</t>
+  </si>
+  <si>
+    <t>SHAABAN ELDESSOUKY MOHAMED WAHBA</t>
+  </si>
+  <si>
+    <t>TRAX</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2011</t>
   </si>
   <si>
     <t>2007</t>
   </si>
   <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>SAMIAH MAHMOUD AHMED MAHMOUD</t>
-  </si>
-  <si>
-    <t>YAHIA AHMED FARAG EBRAHIM</t>
-  </si>
-  <si>
-    <t>AVANTE</t>
-  </si>
-  <si>
-    <t>KMHDU41BP7U242468</t>
-  </si>
-  <si>
-    <t>KMHDG41DBBU095431</t>
-  </si>
-  <si>
-    <t>9992022070000013793</t>
-  </si>
-  <si>
-    <t>9992022070000035283</t>
-  </si>
-  <si>
-    <t>999999999</t>
-  </si>
-  <si>
-    <t>950449415</t>
-  </si>
-  <si>
-    <t>2022-08-16 02:06</t>
+    <t>KMHD741DBGU173749</t>
+  </si>
+  <si>
+    <t>KNAFK412BDA083247</t>
+  </si>
+  <si>
+    <t>KLABA76BDGB748116</t>
+  </si>
+  <si>
+    <t>KNAFH22139A050074</t>
+  </si>
+  <si>
+    <t>KMHDG41DBBU137819</t>
+  </si>
+  <si>
+    <t>KMHDU41BP7U018874</t>
+  </si>
+  <si>
+    <t>9992022080000014089</t>
+  </si>
+  <si>
+    <t>9992022080000014329</t>
+  </si>
+  <si>
+    <t>9992022080000014402</t>
+  </si>
+  <si>
+    <t>9992022080000014485</t>
+  </si>
+  <si>
+    <t>9992022080000014667</t>
+  </si>
+  <si>
+    <t>9992022080000028923</t>
+  </si>
+  <si>
+    <t>903204053</t>
+  </si>
+  <si>
+    <t>950496286</t>
+  </si>
+  <si>
+    <t>AHMED MOHAMED ELAAWADY ABD ELAAL</t>
+  </si>
+  <si>
+    <t>WALAA GAMIEL FATHY SEDIEK</t>
+  </si>
+  <si>
+    <t>ODAY MOHAMED ABD ELAATY MOHAMED MEKAWY</t>
+  </si>
+  <si>
+    <t>MOSALAM AHMED MAHMOUD ABD ALLAH EBRAHIM</t>
+  </si>
+  <si>
+    <t>HASSAN ELSAYED SABER ABD ELFATAH MOHAMED</t>
+  </si>
+  <si>
+    <t>ASHRAF MOHAMED EBRAHIM NASSER</t>
+  </si>
+  <si>
+    <t>RAWDA MOAHMED AAFIFY ELSAYED AAFIFY SALAMAH</t>
+  </si>
+  <si>
+    <t>KHALED BAHGAT ABD ELGABER AMIEN</t>
+  </si>
+  <si>
+    <t>EYAD ALAA SALEH ELSAYED METWALLY</t>
+  </si>
+  <si>
+    <t>HASSAN SOLIMAN HASSAAN KHEDR</t>
+  </si>
+  <si>
+    <t>MAGDA AABOUD HAMAAD BAKRY</t>
+  </si>
+  <si>
+    <t>ASMAA FATHY ADREES ABD ELMONAEM MOHAMED</t>
+  </si>
+  <si>
+    <t>TIVOLI</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>KMHDG41DBBU024372</t>
+  </si>
+  <si>
+    <t>KNAFZ412BDA004986</t>
+  </si>
+  <si>
+    <t>KMHDU41BP7U121931</t>
+  </si>
+  <si>
+    <t>KMHDU41BBAU074145</t>
+  </si>
+  <si>
+    <t>KNAFT415BDA685980</t>
+  </si>
+  <si>
+    <t>KMHDH41DBCU275493</t>
+  </si>
+  <si>
+    <t>KPBXH3AR1JP231026</t>
+  </si>
+  <si>
+    <t>KNAFH22139A064294</t>
+  </si>
+  <si>
+    <t>KMHDG41DBBU166305</t>
+  </si>
+  <si>
+    <t>KMHDU41BP7U248439</t>
+  </si>
+  <si>
+    <t>KMHDU41BBAU005624</t>
+  </si>
+  <si>
+    <t>KMHDG41DBBU057458</t>
+  </si>
+  <si>
+    <t>9992022070000061545</t>
+  </si>
+  <si>
+    <t>9992022070000061487</t>
+  </si>
+  <si>
+    <t>9992022070000061438</t>
+  </si>
+  <si>
+    <t>9992022080000012315</t>
+  </si>
+  <si>
+    <t>9992022080000000039</t>
+  </si>
+  <si>
+    <t>9992022070000061552</t>
+  </si>
+  <si>
+    <t>9992022080000030465</t>
+  </si>
+  <si>
+    <t>9992022080000056585</t>
+  </si>
+  <si>
+    <t>9992022080000006465</t>
+  </si>
+  <si>
+    <t>9992022080000006473</t>
+  </si>
+  <si>
+    <t>9992022080000006481</t>
+  </si>
+  <si>
+    <t>9992022080000048111</t>
+  </si>
+  <si>
+    <t>940415771</t>
+  </si>
+  <si>
+    <t>SAMAAH AATTIA MAHMOUD ABD ELRAOUF</t>
+  </si>
+  <si>
+    <t>TUCSON</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>KMHJ5812GLU324020</t>
+  </si>
+  <si>
+    <t>9992022070000040895</t>
+  </si>
+  <si>
+    <t>940403609</t>
+  </si>
+  <si>
+    <t>WALEED SAAD REZK ELMOLLA</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>KNAFZ412BFA290008</t>
+  </si>
+  <si>
+    <t>9992022060000072337</t>
+  </si>
+  <si>
+    <t>950455865</t>
+  </si>
+  <si>
+    <t>DOAA FAYEZ ABD ALLAH ELSAYED ABD ALLAH</t>
+  </si>
+  <si>
+    <t>EMAN ELSAIED MOHY MAKARM</t>
+  </si>
+  <si>
+    <t>AADAWY SAYED AADAWY MOUSTAFA</t>
+  </si>
+  <si>
+    <t>MAHMOUD MOHAMED ABD ELAAZIEM ABD ALLAH</t>
+  </si>
+  <si>
+    <t>NAYROUZ ELSAYED MAMDOUH ELSAYED AHMED HASSANIEN</t>
+  </si>
+  <si>
+    <t>GOUNIOR GERGES ESHAQ NASSIEF AWAD</t>
+  </si>
+  <si>
+    <t>MAHMOUD MAHMOUD HAGAG TOUNY MOHAMED</t>
+  </si>
+  <si>
+    <t>REHAM AHMED MOUKHTAR MOHAMED ABD ELKAREEM</t>
+  </si>
+  <si>
+    <t>NERMEEN FAWZY MOHAMED LOTFY ABD ELHAMIED</t>
+  </si>
+  <si>
+    <t>MAHMOUD ELSAYED YOUNIES SALEM</t>
+  </si>
+  <si>
+    <t>AHMED FATHY FAYEZ ELSAYED MOUSTAFA</t>
+  </si>
+  <si>
+    <t>SALAH SALAMAH MOHAMED ELSAYED ALI YOUSSEF</t>
+  </si>
+  <si>
+    <t>NABIELA MOHAMED MOHAMED EBRAHIM</t>
+  </si>
+  <si>
+    <t>MOHAMED MOHAMED MORSY ELSHAZLY</t>
+  </si>
+  <si>
+    <t>ABD ELHAY ABD ELRAZEK QENAWY KAFAFY</t>
+  </si>
+  <si>
+    <t>ROUDINA NASSER MAHROUS AMOUBARK ESMAIL</t>
+  </si>
+  <si>
+    <t>KAREEM HEMDAN GHARABAWY OMAR ELGHARABAWY</t>
+  </si>
+  <si>
+    <t>ADEL YOUSSEF MOHAMED TOURKY</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>KNAFH22139A018976</t>
+  </si>
+  <si>
+    <t>KMHDU41BBAU909420</t>
+  </si>
+  <si>
+    <t>KMHDU41BP8U381712</t>
+  </si>
+  <si>
+    <t>KMHDH41DBBU027867</t>
+  </si>
+  <si>
+    <t>KMHDG41DBBU057026</t>
+  </si>
+  <si>
+    <t>KMHDH41DBCU299247</t>
+  </si>
+  <si>
+    <t>KPBXHAR1FP019286</t>
+  </si>
+  <si>
+    <t>KMHDU41BP8U425062</t>
+  </si>
+  <si>
+    <t>KMHDH41DBCU413802</t>
+  </si>
+  <si>
+    <t>KMHDH41DBBU034065</t>
+  </si>
+  <si>
+    <t>KMHDU41BBAU045284</t>
+  </si>
+  <si>
+    <t>KNAFK412BFA326344</t>
+  </si>
+  <si>
+    <t>KMHDH41DBCU401649</t>
+  </si>
+  <si>
+    <t>KMHDH41DBCU617457</t>
+  </si>
+  <si>
+    <t>KMHDG41DBCU272606</t>
+  </si>
+  <si>
+    <t>KMHJ3812GKU815210</t>
+  </si>
+  <si>
+    <t>KNAFU415BBA933829</t>
+  </si>
+  <si>
+    <t>KMHDU41BBAU907475</t>
+  </si>
+  <si>
+    <t>9992022070000008496</t>
+  </si>
+  <si>
+    <t>9992022070000008470</t>
+  </si>
+  <si>
+    <t>9992022070000013736</t>
+  </si>
+  <si>
+    <t>9992022070000033353</t>
+  </si>
+  <si>
+    <t>9992022070000032819</t>
+  </si>
+  <si>
+    <t>9992022070000032918</t>
+  </si>
+  <si>
+    <t>9992022070000034542</t>
+  </si>
+  <si>
+    <t>9992022070000042040</t>
+  </si>
+  <si>
+    <t>9992022070000046017</t>
+  </si>
+  <si>
+    <t>9992022070000046090</t>
+  </si>
+  <si>
+    <t>9992022070000046157</t>
+  </si>
+  <si>
+    <t>9992022070000046009</t>
+  </si>
+  <si>
+    <t>9992022070000046041</t>
+  </si>
+  <si>
+    <t>9992022070000045944</t>
+  </si>
+  <si>
+    <t>9992022080000100508</t>
+  </si>
+  <si>
+    <t>9992022080000012968</t>
+  </si>
+  <si>
+    <t>9992022080000012794</t>
+  </si>
+  <si>
+    <t>9992022080000013008</t>
+  </si>
+  <si>
+    <t>950500798</t>
   </si>
   <si>
     <t>CONSIGNEE NAME:</t>
   </si>
   <si>
+    <t xml:space="preserve">EGYPTIAN IMPORTER VAT NUMBER </t>
+  </si>
+  <si>
     <t>FOREIGN EXPORTER REGISTRATION NUMBER</t>
   </si>
   <si>
-    <t>{"1": "2012", "2": "2013", "3": "2011", "4": "2009", "5": "2010", "6": "2013", "7": "2013", "8": "2014", "9": "2011"}</t>
-  </si>
-  <si>
-    <t>{"1": 2012.0, "2": 2011.0, "3": 2007.0, "4": 2009.0, "5": 2013.0, "6": 2011.0, "7": 2012.0, "8": 2012.0}</t>
-  </si>
-  <si>
-    <t>TIBA INTERNATIONAL FOR READY-MADE CLOTHES /AMR MOHAMED ELNAKEEB AND HIS PARTNERS PORT SAID PUBLIC FREE ZONE IN TRANSIT</t>
-  </si>
-  <si>
-    <t>TRANS WORLD TRADING CO. ( ELROTOB BROTHERS)</t>
-  </si>
-  <si>
-    <t>2049459332022060331</t>
-  </si>
-  <si>
-    <t>2049062532022080021</t>
+    <t>INTER FOOD CO.</t>
+  </si>
+  <si>
+    <t>TIBA INTERNATIONAL FOR READY-MADE CLOTHES / AMR MOHAMED ELNAKEEB HIS PARTNERS</t>
+  </si>
+  <si>
+    <t>2049431672022080190</t>
+  </si>
+  <si>
+    <t>2049431672022080158</t>
+  </si>
+  <si>
+    <t>2049459332022080065</t>
+  </si>
+  <si>
+    <t>204943167</t>
   </si>
   <si>
     <t>204945933</t>
   </si>
   <si>
-    <t>204906253</t>
-  </si>
-  <si>
-    <t>5032125413</t>
-  </si>
-  <si>
-    <t>6348801265</t>
-  </si>
-  <si>
-    <t>{"1": "AVANTE", "2": "AVANTE", "3": "AVANTE", "4": "AVANTE", "5": "FORTE", "6": "K3", "7": "AVANTE", "8": "AVANTE", "9": "AVANTE"}</t>
-  </si>
-  <si>
-    <t>{"1": "AVANTE", "2": "AVANTE", "3": "AVANTE", "4": "FORTE", "5": "K3", "6": "AVANTE", "7": "MORNING", "8": "AVANTE"}</t>
-  </si>
-  <si>
-    <t>{"1": "KMHDG41DBCU498818", "2": "KMHDH41DBBU034992", "3": "KMHDU41BP7U129960", "4": "KNAFH22139A004895", "5": "KNAFX412BDA028429", "6": "KMHDH41DBBU056522", "7": "KNABX511BCT014032", "8": "KMHDH41DBCU178482"}</t>
-  </si>
-  <si>
-    <t>2022-08-16 02:11</t>
-  </si>
-  <si>
-    <t>ACID NO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"1": "KNAFX412BDA019546", "2": "KMHDG41DBDU811770", "3": "KMHDH41DBBU022899", "4": "KMHDU41BP9U650276", "5": "KNAFU411BAA283179", "6": "KMHDG41DBCU478675", "7": "KMHDG41DBDU690078", "8": "KMHDG41DBEU910360", "9": "KMHDG41DBBU084961"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">EGYPTIAN IMPORTER VAT NUMBER </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>1318660704</t>
+  </si>
+  <si>
+    <t>{"1": "AVANTE", "2": "AVANTE", "3": "AVANTE", "4": "FORTE", "5": "LACETTI", "6": "FORTE", "7": "AVANTE", "8": "AVANTE"}</t>
+  </si>
+  <si>
+    <t>{"1": "AVANTE", "2": "FORTE", "3": "AVANTE", "4": "AVANTE"}</t>
+  </si>
+  <si>
+    <t>{"1": "AVANTE", "2": "AVANTE", "3": "AVANTE", "4": "AVANTE", "5": "AVANTE", "6": "I30", "7": "AVANTE", "8": "AVANTE"}</t>
+  </si>
+  <si>
+    <t>{"1": 2005.0, "2": 2010.0, "3": 2010.0, "4": 2010.0, "5": 2008.0, "6": 2010.0, "7": 2011.0, "8": 2010.0}</t>
+  </si>
+  <si>
+    <t>{"1": 2009.0, "2": 2010.0, "3": 2013.0, "4": 2007.0}</t>
+  </si>
+  <si>
+    <t>{"1": 2008.0, "2": 2012.0, "3": 2008.0, "4": 2012.0, "5": 2007.0, "6": 2008.0, "7": 2007.0, "8": 2011.0}</t>
+  </si>
+  <si>
+    <t>{"1": "KMHDN41BP5U117774", "2": "KMHDU41BBAU877171", "3": "KMHDT41BBAU006393", "4": "KNAFU411BAA205990", "5": "KLANA196D8K883858", "6": "KNAFW411BAA213426", "7": "KMHDG41DBBU026390", "8": "KMHDU41BBAU881713"}</t>
+  </si>
+  <si>
+    <t>{"1": "KMHDU41BP9U725850", "2": "KNAFU411BAA142005", "3": "KMHDG41DBDU767573", "4": "KMHDU41BP7U039925"}</t>
+  </si>
+  <si>
+    <t>{"1": "KMHDU41BP8U422808", "2": "KMHDG41DBCU354392", "3": "KMHDU41BP8U579337", "4": "KMHDG41DBCU267788", "5": "KMHDU41BP7U330453", "6": "KMHDC51DP8U057380", "7": "KMHDU41BP7U319807", "8": "KMHDG41DBBU071805"}</t>
+  </si>
+  <si>
+    <t>2049076832022080087</t>
+  </si>
+  <si>
+    <t>204907683</t>
+  </si>
+  <si>
+    <t>1278658024</t>
+  </si>
+  <si>
+    <t>{"1": "AVANTE", "2": "AVANTE", "3": "K3", "4": "SOUL", "5": "FORTE", "6": "FORTE", "7": "FORTE", "8": "FORTE", "9": "FORTE", "10": "AVANTE"}</t>
+  </si>
+  <si>
+    <t>{"1": 2012.0, "2": 2011.0, "3": 2015.0, "4": 2010.0, "5": 2011.0, "6": 2010.0, "7": 2010.0, "8": 2010.0, "9": 2009.0, "10": 2012.0}</t>
+  </si>
+  <si>
+    <t>{"1": "KMHDG41DBCU372355", "2": "KMHDG41DBBU079227", "3": "KNAFK412BFA430715", "4": "KNAJU811BAK104332", "5": "KNAFW415BBA380984", "6": "KNAFU411BAA225708", "7": "KNAFT411BAA233766", "8": "KNAFU411BAA263508", "9": "KNAFH22139A070842", "10": "KMHDG41DBCU277583"}</t>
+  </si>
+  <si>
+    <t>CONSIGNEE NAME :</t>
+  </si>
+  <si>
+    <t>2049431672022060010</t>
+  </si>
+  <si>
+    <t>2049431672022060028</t>
+  </si>
+  <si>
+    <t>2049431672022060317</t>
+  </si>
+  <si>
+    <t>2049431672022060184</t>
+  </si>
+  <si>
+    <t>3698600558</t>
+  </si>
+  <si>
+    <t>{"1": "AVANTE MD", "2": "AVANTE HD", "3": "K3", "4": "AVANTE MD", "5": "FORTE", "6": "AVANTE HD", "7": "AVANTE MD", "8": "AVANTE HD", "9": "TRAX", "10": "AVANTE MD"}</t>
+  </si>
+  <si>
+    <t>{"1": "AVANTE MD", "2": "FORTE", "3": "FORTE", "4": "AVANTE MD", "5": "FORTE", "6": "AVANTE MD", "7": "FORTE", "8": "AVANTE MD", "9": "K3", "10": "AVANTE MD"}</t>
+  </si>
+  <si>
+    <t>{"1": "AVANTE HD", "2": "AVANTE MD", "3": "CRUZE", "4": "SOUL", "5": "SOUL", "6": "AVANTE HD", "7": "AVANTE HD", "8": "AVANTE HD", "9": "AVANTE MD", "10": "SOUL", "11": "AVANTE HD", "12": "FORTE", "13": "AVANTE HD"}</t>
+  </si>
+  <si>
+    <t>{"1": "SOUL", "2": "AVANTE HD", "3": "FORTE", "4": "K3", "5": "AVANTE MD", "6": "TRAX", "7": "AVANTE HD", "8": "SOUL", "9": "FORTE", "10": "TRAX"}</t>
+  </si>
+  <si>
+    <t>{"1": 2012.0, "2": 2007.0, "3": 2013.0, "4": 2013.0, "5": 2012.0, "6": 2009.0, "7": 2013.0, "8": 2007.0, "9": 2014.0, "10": 2011.0}</t>
+  </si>
+  <si>
+    <t>{"1": 2014.0, "2": 2010.0, "3": 2010.0, "4": 2014.0, "5": 2009.0, "6": 2014.0, "7": 2010.0, "8": 2012.0, "9": 2013.0, "10": 2012.0}</t>
+  </si>
+  <si>
+    <t>{"1": 2007.0, "2": 2011.0, "3": 2010.0, "4": 2012.0, "5": 2009.0, "6": 2007.0, "7": 2009.0, "8": 2010.0, "9": 2011.0, "10": 2010.0, "11": 2010.0, "12": 2009.0, "13": 2010.0}</t>
+  </si>
+  <si>
+    <t>{"1": 2009.0, "2": 2007.0, "3": 2010.0, "4": 2013.0, "5": 2012.0, "6": 2013.0, "7": 2010.0, "8": 2011.0, "9": 2013.0, "10": 2014.0}</t>
+  </si>
+  <si>
+    <t>{"1": "KMHDG41DBCU448663", "2": "KMHDU41BP7U302311", "3": "KNAFK412BDA011679", "4": "KMHDG41DBDU665209", "5": "KNAFU415BCA951875", "6": "KMHDU41BP9U794378", "7": "KMHDG41DBDU659662", "8": "KMHDU41BP7U206851", "9": "KLABA76BDEB618876", "10": "KMHDG41DBBU081389"}</t>
+  </si>
+  <si>
+    <t>{"1": "KMHDG41DBEU957867", "2": "KNAFU411BAA109369", "3": "KNAFU411BAA274461", "4": "KMHDH41DBEU915675", "5": "KNAFH22139A009419", "6": "KMHDG41DBEU883304", "7": "KNAFU411BAA114482", "8": "KMHDH41DBCU380456", "9": "KNAFK412BDA001138", "10": "KMHDG41DBCU576817"}</t>
+  </si>
+  <si>
+    <t>{"1": "KMHDU41BP7U038747", "2": "KMHDG41DBBU036841", "3": "KLAJA69EDAK663545", "4": "KNAJU815BCK443790", "5": "KNAJG55139K000733", "6": "KMHDU41BP7U144558", "7": "KMHDU41BP9U820568", "8": "KMHDU41BBAU162658", "9": "KMHDH41DBBU103111", "10": "KNAJT811BAK061623", "11": "KMHDU41BBAU910144", "12": "KNAFH22139A010109", "13": "KMHDU41BBAU853340"}</t>
+  </si>
+  <si>
+    <t>{"1": "KNAJG55139K008326", "2": "KMHDU41BP7U115765", "3": "KNAFU411BAA168115", "4": "KNAFJ412BDA084886", "5": "KMHDG41DBCU189926", "6": "KLABA76BDDB193710", "7": "KMHDU41BBAU927969", "8": "KNAJU811BBK261679", "9": "KNAFU415BDA589495", "10": "KLABA76BDEB532223"}</t>
+  </si>
+  <si>
+    <t>MOHAMED ALI ABASS SALEH ELBATOUT ( CRYSTAL ) &amp; CO.</t>
+  </si>
+  <si>
+    <t>3037458272022070084</t>
+  </si>
+  <si>
+    <t>303745827</t>
+  </si>
+  <si>
+    <t>4340401971</t>
+  </si>
+  <si>
+    <t>{"1": "FORTE", "2": "K3", "3": "K3", "4": "AVANTE", "5": "SOUL", "6": "AVANTE", "7": "FORTE", "8": "AVANTE", "9": "K3", "10": "AVANTE"}</t>
+  </si>
+  <si>
+    <t>{"1": 2009.0, "2": 2016.0, "3": 2013.0, "4": 2011.0, "5": 2010.0, "6": 2008.0, "7": 2010.0, "8": 2008.0, "9": 2013.0, "10": 2013.0}</t>
+  </si>
+  <si>
+    <t>{"1": "KNAFH22139A016683", "2": "KNAFK412BGA947944", "3": "KNAFX412BDA022864", "4": "KMHDG41DBBU071361", "5": "KNAJU811BAK149449", "6": "KMHDU41BP8U560321", "7": "KNAFU411BAA263503", "8": "KMHDU41BP8U440438", "9": "KNAFX412BDA055742", "10": "KMHDH41DBDU624351"}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -158,30 +665,17 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -211,31 +705,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -277,7 +762,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -309,10 +794,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -344,7 +828,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -520,26 +1003,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.75" customWidth="1"/>
-    <col min="2" max="2" width="19.75" customWidth="1"/>
-    <col min="3" max="3" width="10.75" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="12.75" customWidth="1"/>
-    <col min="6" max="6" width="24.75" customWidth="1"/>
-    <col min="7" max="7" width="25.75" customWidth="1"/>
-    <col min="8" max="8" width="13.75" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -561,103 +1041,1280 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="H3" t="s">
-        <v>19</v>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" customWidth="1"/>
+    <col min="4" max="4" width="41.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.75" customWidth="1"/>
-    <col min="2" max="2" width="20.75" customWidth="1"/>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="34.75" customWidth="1"/>
-    <col min="5" max="5" width="41.75" customWidth="1"/>
-    <col min="6" max="6" width="10.75" customWidth="1"/>
-    <col min="7" max="8" width="13.75" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
         <v>36</v>
       </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" t="s">
+        <v>147</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" t="s">
+        <v>148</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" t="s">
+        <v>149</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E16" t="s">
+        <v>152</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" t="s">
+        <v>153</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" t="s">
+        <v>154</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19" t="s">
+        <v>155</v>
+      </c>
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" customWidth="1"/>
+    <col min="4" max="4" width="41.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -665,65 +2322,282 @@
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>162</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>167</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>168</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>171</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>160</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>163</v>
+      </c>
+      <c r="C3" t="s">
+        <v>165</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>167</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>169</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G4" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" customWidth="1"/>
+    <col min="4" max="4" width="41.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" customWidth="1"/>
+    <col min="4" max="4" width="41.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/input_mail/result/total_data_from_mail.xlsx
+++ b/data/input_mail/result/total_data_from_mail.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="209">
   <si>
     <t>CONSIGNEE NAME</t>
   </si>
@@ -554,6 +554,9 @@
   </si>
   <si>
     <t>{"1": "KMHDU41BP8U422808", "2": "KMHDG41DBCU354392", "3": "KMHDU41BP8U579337", "4": "KMHDG41DBCU267788", "5": "KMHDU41BP7U330453", "6": "KMHDC51DP8U057380", "7": "KMHDU41BP7U319807", "8": "KMHDG41DBBU071805"}</t>
+  </si>
+  <si>
+    <t>UNITRADE COMPANY FOR TRADING</t>
   </si>
   <si>
     <t>2049076832022080087</t>
@@ -1158,25 +1161,25 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -2439,25 +2442,25 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2484,7 +2487,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -2510,22 +2513,22 @@
         <v>160</v>
       </c>
       <c r="B2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C2" t="s">
         <v>165</v>
       </c>
       <c r="D2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2533,22 +2536,22 @@
         <v>160</v>
       </c>
       <c r="B3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C3" t="s">
         <v>165</v>
       </c>
       <c r="D3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2556,22 +2559,22 @@
         <v>160</v>
       </c>
       <c r="B4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C4" t="s">
         <v>165</v>
       </c>
       <c r="D4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2579,22 +2582,22 @@
         <v>160</v>
       </c>
       <c r="B5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C5" t="s">
         <v>165</v>
       </c>
       <c r="D5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/data/input_mail/result/total_data_from_mail.xlsx
+++ b/data/input_mail/result/total_data_from_mail.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="211">
   <si>
     <t>CONSIGNEE NAME</t>
   </si>
@@ -46,6 +46,9 @@
     <t>FREIGHT FORWARDER ID</t>
   </si>
   <si>
+    <t>gen_time</t>
+  </si>
+  <si>
     <t>SALEH AHMED MOHAMED SALEH</t>
   </si>
   <si>
@@ -98,6 +101,9 @@
   </si>
   <si>
     <t>940426900</t>
+  </si>
+  <si>
+    <t>2022-08-27 16:38</t>
   </si>
   <si>
     <t>REDA MAHMOUD SADEK MOUSTAFA</t>
@@ -1007,7 +1013,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1020,9 +1026,10 @@
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="24.7109375" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1044,74 +1051,86 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
+      <c r="H4" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1121,7 +1140,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1134,20 +1153,21 @@
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -1158,28 +1178,34 @@
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G2" t="s">
-        <v>208</v>
+        <v>210</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1189,7 +1215,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1202,9 +1228,10 @@
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="24.7109375" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1226,143 +1253,164 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
         <v>32</v>
       </c>
-      <c r="D2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
         <v>36</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D7" t="s">
         <v>42</v>
       </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>40</v>
-      </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1372,7 +1420,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1385,9 +1433,10 @@
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="24.7109375" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1409,281 +1458,320 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
         <v>49</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
         <v>76</v>
       </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="E12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
         <v>77</v>
       </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" t="s">
-        <v>84</v>
-      </c>
-      <c r="F10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" t="s">
-        <v>86</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" t="s">
-        <v>75</v>
-      </c>
       <c r="E13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="H13" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1693,7 +1781,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1706,9 +1794,10 @@
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="24.7109375" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1730,28 +1819,34 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>94</v>
+        <v>96</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1761,7 +1856,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1774,9 +1869,10 @@
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="24.7109375" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1798,28 +1894,34 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>99</v>
+        <v>101</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1829,7 +1931,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1842,9 +1944,10 @@
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="24.7109375" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1866,419 +1969,476 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>120</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
+        <v>158</v>
+      </c>
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>158</v>
+      </c>
+      <c r="H11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" t="s">
+        <v>150</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" t="s">
+        <v>158</v>
+      </c>
+      <c r="H12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
+        <v>158</v>
+      </c>
+      <c r="H13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" t="s">
+        <v>152</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s">
+        <v>158</v>
+      </c>
+      <c r="H14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" t="s">
+        <v>158</v>
+      </c>
+      <c r="H16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" t="s">
+        <v>155</v>
+      </c>
+      <c r="F17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
         <v>138</v>
       </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="E18" t="s">
+        <v>156</v>
+      </c>
+      <c r="F18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
         <v>139</v>
       </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E5" t="s">
-        <v>141</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" t="s">
-        <v>142</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" t="s">
-        <v>125</v>
-      </c>
-      <c r="E7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E8" t="s">
-        <v>144</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E9" t="s">
-        <v>145</v>
-      </c>
-      <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E10" t="s">
-        <v>146</v>
-      </c>
-      <c r="F10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>109</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E11" t="s">
-        <v>147</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>130</v>
-      </c>
-      <c r="E12" t="s">
-        <v>148</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>111</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" t="s">
-        <v>131</v>
-      </c>
-      <c r="E13" t="s">
-        <v>149</v>
-      </c>
-      <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>112</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" t="s">
-        <v>132</v>
-      </c>
-      <c r="E14" t="s">
-        <v>150</v>
-      </c>
-      <c r="F14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>113</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" t="s">
-        <v>133</v>
-      </c>
-      <c r="E15" t="s">
-        <v>151</v>
-      </c>
-      <c r="F15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>114</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E16" t="s">
-        <v>152</v>
-      </c>
-      <c r="F16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>115</v>
-      </c>
-      <c r="B17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" t="s">
-        <v>119</v>
-      </c>
-      <c r="D17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E17" t="s">
-        <v>153</v>
-      </c>
-      <c r="F17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>116</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" t="s">
-        <v>136</v>
-      </c>
-      <c r="E18" t="s">
-        <v>154</v>
-      </c>
-      <c r="F18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>117</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" t="s">
-        <v>137</v>
-      </c>
       <c r="E19" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G19" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="H19" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2288,7 +2448,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2301,20 +2461,21 @@
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -2325,74 +2486,86 @@
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
         <v>162</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>165</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
         <v>167</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" t="s">
         <v>168</v>
       </c>
-      <c r="F2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D4" t="s">
         <v>169</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E4" t="s">
         <v>172</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F4" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E4" t="s">
-        <v>170</v>
-      </c>
-      <c r="F4" t="s">
-        <v>173</v>
-      </c>
       <c r="G4" t="s">
-        <v>176</v>
+        <v>178</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2402,7 +2575,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2415,20 +2588,21 @@
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -2439,28 +2613,34 @@
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G2" t="s">
-        <v>183</v>
+        <v>185</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2470,7 +2650,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2483,20 +2663,21 @@
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -2507,97 +2688,112 @@
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" t="s">
         <v>189</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" t="s">
+        <v>198</v>
+      </c>
+      <c r="G4" t="s">
+        <v>202</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" t="s">
         <v>190</v>
       </c>
-      <c r="F2" t="s">
-        <v>194</v>
-      </c>
-      <c r="G2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" t="s">
         <v>191</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E5" t="s">
         <v>195</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F5" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D4" t="s">
-        <v>189</v>
-      </c>
-      <c r="E4" t="s">
-        <v>192</v>
-      </c>
-      <c r="F4" t="s">
-        <v>196</v>
-      </c>
-      <c r="G4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D5" t="s">
-        <v>189</v>
-      </c>
-      <c r="E5" t="s">
-        <v>193</v>
-      </c>
-      <c r="F5" t="s">
-        <v>197</v>
-      </c>
       <c r="G5" t="s">
-        <v>201</v>
+        <v>203</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/data/input_mail/result/total_data_from_mail.xlsx
+++ b/data/input_mail/result/total_data_from_mail.xlsx
@@ -103,7 +103,7 @@
     <t>940426900</t>
   </si>
   <si>
-    <t>2022-08-27 16:38</t>
+    <t>2022-08-27 16:58</t>
   </si>
   <si>
     <t>REDA MAHMOUD SADEK MOUSTAFA</t>

--- a/data/input_mail/result/total_data_from_mail.xlsx
+++ b/data/input_mail/result/total_data_from_mail.xlsx
@@ -103,7 +103,7 @@
     <t>940426900</t>
   </si>
   <si>
-    <t>2022-08-27 16:58</t>
+    <t>2022-08-27 17:03</t>
   </si>
   <si>
     <t>REDA MAHMOUD SADEK MOUSTAFA</t>
